--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-HuyenLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-HuyenLe.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,12 +16,12 @@
     <definedName name="OLE_LINK1" localSheetId="0">SEP!#REF!</definedName>
     <definedName name="OLE_LINK3" localSheetId="0">SEP!$A$6</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>Week</t>
   </si>
@@ -162,15 +162,18 @@
   <si>
     <t>Ananlysis</t>
   </si>
+  <si>
+    <t>Le Dinh Thach Huyen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,7 +691,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -723,7 +725,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -899,14 +900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -923,24 +924,24 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="D3" s="3"/>
       <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -949,7 +950,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1">
       <c r="C5" s="7"/>
       <c r="L5" s="3" t="s">
         <v>13</v>
@@ -958,7 +959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="32.25" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -994,7 +995,7 @@
       </c>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1">
       <c r="A7" s="86">
         <v>1</v>
       </c>
@@ -1025,7 +1026,7 @@
       </c>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.5" thickBot="1">
       <c r="A8" s="87"/>
       <c r="B8" s="82">
         <v>41051</v>
@@ -1054,7 +1055,7 @@
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.5" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="88">
         <v>41054</v>
@@ -1083,7 +1084,7 @@
       </c>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1">
       <c r="A10" s="87"/>
       <c r="B10" s="89"/>
       <c r="C10" s="25">
@@ -1107,7 +1108,7 @@
       <c r="J10" s="12"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="87"/>
       <c r="B11" s="82">
         <v>41056</v>
@@ -1136,7 +1137,7 @@
       </c>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="86">
         <v>2</v>
       </c>
@@ -1167,7 +1168,7 @@
       </c>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A13" s="87"/>
       <c r="B13" s="81">
         <v>41058</v>
@@ -1196,7 +1197,7 @@
       </c>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="79.5" thickBot="1">
       <c r="A14" s="87"/>
       <c r="B14" s="14">
         <v>41059</v>
@@ -1225,7 +1226,7 @@
       </c>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.5" thickBot="1">
       <c r="A15" s="87"/>
       <c r="B15" s="81"/>
       <c r="C15" s="25"/>
@@ -1244,7 +1245,7 @@
       </c>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.5" thickBot="1">
       <c r="A16" s="87"/>
       <c r="B16" s="14"/>
       <c r="C16" s="25"/>
@@ -1263,7 +1264,7 @@
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="90"/>
       <c r="B17" s="81"/>
       <c r="C17" s="25"/>
@@ -1279,7 +1280,7 @@
       <c r="J17" s="12"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="84"/>
       <c r="B18" s="14"/>
       <c r="C18" s="25"/>
@@ -1295,7 +1296,7 @@
       <c r="J18" s="12"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A19" s="84"/>
       <c r="B19" s="83"/>
       <c r="C19" s="25"/>
@@ -1311,7 +1312,7 @@
       <c r="J19" s="12"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="85"/>
       <c r="B20" s="14"/>
       <c r="C20" s="27"/>
@@ -1326,7 +1327,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A21" s="13"/>
       <c r="B21" s="16"/>
       <c r="C21" s="25"/>
@@ -1342,7 +1343,7 @@
       <c r="J21" s="12"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="13"/>
       <c r="B22" s="16"/>
       <c r="C22" s="25"/>
@@ -1358,7 +1359,7 @@
       <c r="J22" s="12"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="13"/>
       <c r="B23" s="16"/>
       <c r="C23" s="25"/>
@@ -1374,7 +1375,7 @@
       <c r="J23" s="12"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="13"/>
       <c r="B24" s="16"/>
       <c r="C24" s="25"/>
@@ -1390,7 +1391,7 @@
       <c r="J24" s="12"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A25" s="24"/>
       <c r="B25" s="16"/>
       <c r="C25" s="25"/>
@@ -1406,7 +1407,7 @@
       <c r="J25" s="12"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="16"/>
       <c r="C26" s="25"/>
@@ -1422,7 +1423,7 @@
       <c r="J26" s="12"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="17"/>
       <c r="C27" s="28"/>
@@ -1437,7 +1438,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="13"/>
       <c r="B28" s="19"/>
       <c r="C28" s="29"/>
@@ -1452,7 +1453,7 @@
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="13"/>
       <c r="B29" s="22"/>
       <c r="C29" s="30"/>
@@ -1467,7 +1468,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="24"/>
       <c r="B30" s="14"/>
       <c r="C30" s="27"/>
@@ -1482,7 +1483,7 @@
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="13"/>
       <c r="B31" s="16"/>
       <c r="C31" s="25"/>
@@ -1498,7 +1499,7 @@
       <c r="J31" s="12"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="13"/>
       <c r="B32" s="16"/>
       <c r="C32" s="25"/>
@@ -1514,7 +1515,7 @@
       <c r="J32" s="12"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="13"/>
       <c r="B33" s="16"/>
       <c r="C33" s="25"/>
@@ -1530,7 +1531,7 @@
       <c r="J33" s="12"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
       <c r="B34" s="16"/>
       <c r="C34" s="25"/>
@@ -1546,7 +1547,7 @@
       <c r="J34" s="12"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A35" s="24"/>
       <c r="B35" s="16"/>
       <c r="C35" s="25"/>
@@ -1562,7 +1563,7 @@
       <c r="J35" s="12"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="13"/>
       <c r="B36" s="16"/>
       <c r="C36" s="25"/>
@@ -1578,7 +1579,7 @@
       <c r="J36" s="12"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="17"/>
       <c r="C37" s="28"/>
@@ -1593,7 +1594,7 @@
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="13"/>
       <c r="B38" s="19"/>
       <c r="C38" s="29"/>
@@ -1608,7 +1609,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="13"/>
       <c r="B39" s="22"/>
       <c r="C39" s="30"/>
@@ -1623,7 +1624,7 @@
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="24"/>
       <c r="B40" s="14"/>
       <c r="C40" s="27"/>
@@ -1638,7 +1639,7 @@
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="13"/>
       <c r="B41" s="16"/>
       <c r="C41" s="25"/>
@@ -1654,7 +1655,7 @@
       <c r="J41" s="12"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="13"/>
       <c r="B42" s="16"/>
       <c r="C42" s="25"/>
@@ -1670,7 +1671,7 @@
       <c r="J42" s="12"/>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A43" s="13">
         <v>7</v>
       </c>
@@ -1688,7 +1689,7 @@
       <c r="J43" s="12"/>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="13"/>
       <c r="B44" s="16"/>
       <c r="C44" s="25"/>
@@ -1704,7 +1705,7 @@
       <c r="J44" s="12"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="24"/>
       <c r="B45" s="16"/>
       <c r="C45" s="25"/>
@@ -1720,7 +1721,7 @@
       <c r="J45" s="12"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="13"/>
       <c r="B46" s="16"/>
       <c r="C46" s="25"/>
@@ -1736,7 +1737,7 @@
       <c r="J46" s="12"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="13"/>
       <c r="B47" s="17"/>
       <c r="C47" s="28"/>
@@ -1751,7 +1752,7 @@
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="13"/>
       <c r="B48" s="19"/>
       <c r="C48" s="29"/>
@@ -1766,7 +1767,7 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="13"/>
       <c r="B49" s="22"/>
       <c r="C49" s="30"/>
@@ -1781,7 +1782,7 @@
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="24"/>
       <c r="B50" s="14"/>
       <c r="C50" s="27"/>
@@ -1796,7 +1797,7 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="13"/>
       <c r="B51" s="16"/>
       <c r="C51" s="25"/>
@@ -1812,7 +1813,7 @@
       <c r="J51" s="12"/>
       <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="13"/>
       <c r="B52" s="17"/>
       <c r="C52" s="28"/>
@@ -1827,7 +1828,7 @@
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
     </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="13"/>
       <c r="B53" s="19"/>
       <c r="C53" s="29"/>
@@ -1842,7 +1843,7 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="13"/>
       <c r="B54" s="22"/>
       <c r="C54" s="30"/>
@@ -1857,7 +1858,7 @@
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="24"/>
       <c r="B55" s="14"/>
       <c r="C55" s="27"/>
@@ -1872,7 +1873,7 @@
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A56" s="13"/>
       <c r="B56" s="16"/>
       <c r="C56" s="25"/>
@@ -1888,7 +1889,7 @@
       <c r="J56" s="12"/>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="13"/>
       <c r="B57" s="16"/>
       <c r="C57" s="25"/>
@@ -1904,7 +1905,7 @@
       <c r="J57" s="12"/>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="13"/>
       <c r="B58" s="16"/>
       <c r="C58" s="25"/>
@@ -1920,7 +1921,7 @@
       <c r="J58" s="12"/>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="13"/>
       <c r="B59" s="16"/>
       <c r="C59" s="25"/>
@@ -1936,7 +1937,7 @@
       <c r="J59" s="12"/>
       <c r="M59" s="10"/>
     </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="24"/>
       <c r="B60" s="16"/>
       <c r="C60" s="25"/>
@@ -1952,7 +1953,7 @@
       <c r="J60" s="12"/>
       <c r="M60" s="10"/>
     </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A61" s="13"/>
       <c r="B61" s="16"/>
       <c r="C61" s="25"/>
@@ -1968,7 +1969,7 @@
       <c r="J61" s="12"/>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A62" s="13"/>
       <c r="B62" s="17"/>
       <c r="C62" s="28"/>
@@ -1983,7 +1984,7 @@
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
     </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A63" s="13"/>
       <c r="B63" s="19"/>
       <c r="C63" s="29"/>
@@ -1998,7 +1999,7 @@
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A64" s="13"/>
       <c r="B64" s="22"/>
       <c r="C64" s="30"/>
@@ -2013,7 +2014,7 @@
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
     </row>
-    <row r="65" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A65" s="24"/>
       <c r="B65" s="14"/>
       <c r="C65" s="27"/>
@@ -2041,14 +2042,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="31" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="32"/>
@@ -2065,19 +2066,19 @@
     <col min="13" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="E2" s="33" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="D3" s="33"/>
       <c r="L3" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="31" t="s">
         <v>9</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1">
       <c r="C5" s="37"/>
       <c r="L5" s="33" t="s">
         <v>13</v>
@@ -2100,7 +2101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="32.25" thickBot="1">
       <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="M6" s="40"/>
     </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="94">
         <v>1</v>
       </c>
@@ -2157,7 +2158,7 @@
       </c>
       <c r="M7" s="40"/>
     </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="95"/>
       <c r="B8" s="98"/>
       <c r="C8" s="56"/>
@@ -2173,7 +2174,7 @@
       <c r="J8" s="42"/>
       <c r="M8" s="40"/>
     </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="96"/>
       <c r="B9" s="99"/>
       <c r="C9" s="56"/>
@@ -2192,7 +2193,7 @@
       </c>
       <c r="M9" s="40"/>
     </row>
-    <row r="10" spans="1:13" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="79.5" thickBot="1">
       <c r="A10" s="94">
         <v>2</v>
       </c>
@@ -2225,7 +2226,7 @@
       </c>
       <c r="M10" s="40"/>
     </row>
-    <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="95"/>
       <c r="B11" s="43"/>
       <c r="C11" s="56"/>
@@ -2244,7 +2245,7 @@
       </c>
       <c r="M11" s="40"/>
     </row>
-    <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
       <c r="A12" s="95"/>
       <c r="B12" s="43"/>
       <c r="C12" s="56"/>
@@ -2260,7 +2261,7 @@
       <c r="J12" s="42"/>
       <c r="M12" s="40"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="96"/>
       <c r="B13" s="43"/>
       <c r="C13" s="56"/>
@@ -2279,7 +2280,7 @@
       </c>
       <c r="M13" s="40"/>
     </row>
-    <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="A14" s="41"/>
       <c r="B14" s="91"/>
       <c r="C14" s="56"/>
@@ -2298,7 +2299,7 @@
       </c>
       <c r="M14" s="40"/>
     </row>
-    <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="45"/>
       <c r="B15" s="92"/>
       <c r="C15" s="56"/>
@@ -2313,7 +2314,7 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.5" thickBot="1">
       <c r="A16" s="41"/>
       <c r="B16" s="93"/>
       <c r="C16" s="56"/>
@@ -2328,7 +2329,7 @@
       <c r="I16" s="47"/>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="45"/>
       <c r="B17" s="48"/>
       <c r="C17" s="28"/>
@@ -2343,7 +2344,7 @@
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
     </row>
-    <row r="18" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
       <c r="A18" s="44"/>
       <c r="B18" s="50"/>
       <c r="C18" s="56"/>
@@ -2358,7 +2359,7 @@
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
     </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A19" s="41"/>
       <c r="B19" s="43"/>
       <c r="C19" s="56"/>
@@ -2374,7 +2375,7 @@
       <c r="J19" s="42"/>
       <c r="M19" s="40"/>
     </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="41"/>
       <c r="B20" s="43"/>
       <c r="C20" s="56"/>
@@ -2390,7 +2391,7 @@
       <c r="J20" s="42"/>
       <c r="M20" s="40"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A21" s="41"/>
       <c r="B21" s="43"/>
       <c r="C21" s="56"/>
@@ -2406,7 +2407,7 @@
       <c r="J21" s="42"/>
       <c r="M21" s="40"/>
     </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="41"/>
       <c r="B22" s="43"/>
       <c r="C22" s="56"/>
@@ -2422,7 +2423,7 @@
       <c r="J22" s="42"/>
       <c r="M22" s="40"/>
     </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="44"/>
       <c r="B23" s="43"/>
       <c r="C23" s="56"/>
@@ -2438,7 +2439,7 @@
       <c r="J23" s="42"/>
       <c r="M23" s="40"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="41"/>
       <c r="B24" s="43"/>
       <c r="C24" s="56"/>
@@ -2454,7 +2455,7 @@
       <c r="J24" s="42"/>
       <c r="M24" s="40"/>
     </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A25" s="45"/>
       <c r="B25" s="53"/>
       <c r="C25" s="58"/>
@@ -2469,7 +2470,7 @@
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="41"/>
       <c r="B26" s="54"/>
       <c r="C26" s="59"/>
@@ -2484,7 +2485,7 @@
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="45"/>
       <c r="B27" s="48"/>
       <c r="C27" s="60"/>
@@ -2499,7 +2500,7 @@
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="44"/>
       <c r="B28" s="50"/>
       <c r="C28" s="61"/>
@@ -2514,7 +2515,7 @@
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
     </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="41"/>
       <c r="B29" s="43"/>
       <c r="C29" s="56"/>
@@ -2530,7 +2531,7 @@
       <c r="J29" s="42"/>
       <c r="M29" s="40"/>
     </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="41"/>
       <c r="B30" s="43"/>
       <c r="C30" s="56"/>
@@ -2546,7 +2547,7 @@
       <c r="J30" s="42"/>
       <c r="M30" s="40"/>
     </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="41"/>
       <c r="B31" s="43"/>
       <c r="C31" s="56"/>
@@ -2562,7 +2563,7 @@
       <c r="J31" s="42"/>
       <c r="M31" s="40"/>
     </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="41"/>
       <c r="B32" s="43"/>
       <c r="C32" s="56"/>
@@ -2578,7 +2579,7 @@
       <c r="J32" s="42"/>
       <c r="M32" s="40"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="44"/>
       <c r="B33" s="43"/>
       <c r="C33" s="56"/>
@@ -2594,7 +2595,7 @@
       <c r="J33" s="42"/>
       <c r="M33" s="40"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="41"/>
       <c r="B34" s="43"/>
       <c r="C34" s="56"/>
@@ -2610,7 +2611,7 @@
       <c r="J34" s="42"/>
       <c r="M34" s="40"/>
     </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A35" s="45"/>
       <c r="B35" s="53"/>
       <c r="C35" s="58"/>
@@ -2625,7 +2626,7 @@
       <c r="I35" s="46"/>
       <c r="J35" s="46"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="41"/>
       <c r="B36" s="54"/>
       <c r="C36" s="59"/>
@@ -2640,7 +2641,7 @@
       <c r="I36" s="47"/>
       <c r="J36" s="47"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="45"/>
       <c r="B37" s="48"/>
       <c r="C37" s="60"/>
@@ -2655,7 +2656,7 @@
       <c r="I37" s="49"/>
       <c r="J37" s="49"/>
     </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="44"/>
       <c r="B38" s="50"/>
       <c r="C38" s="61"/>
@@ -2670,7 +2671,7 @@
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
     </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="41"/>
       <c r="B39" s="43"/>
       <c r="C39" s="56"/>
@@ -2686,7 +2687,7 @@
       <c r="J39" s="42"/>
       <c r="M39" s="40"/>
     </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="41"/>
       <c r="B40" s="43"/>
       <c r="C40" s="56"/>
@@ -2702,7 +2703,7 @@
       <c r="J40" s="42"/>
       <c r="M40" s="40"/>
     </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="41"/>
       <c r="B41" s="43"/>
       <c r="C41" s="56"/>
@@ -2718,7 +2719,7 @@
       <c r="J41" s="42"/>
       <c r="M41" s="40"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="41"/>
       <c r="B42" s="43"/>
       <c r="C42" s="56"/>
@@ -2734,7 +2735,7 @@
       <c r="J42" s="42"/>
       <c r="M42" s="40"/>
     </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A43" s="44"/>
       <c r="B43" s="43"/>
       <c r="C43" s="56"/>
@@ -2750,7 +2751,7 @@
       <c r="J43" s="42"/>
       <c r="M43" s="40"/>
     </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="41"/>
       <c r="B44" s="43"/>
       <c r="C44" s="56"/>
@@ -2766,7 +2767,7 @@
       <c r="J44" s="42"/>
       <c r="M44" s="40"/>
     </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="45"/>
       <c r="B45" s="53"/>
       <c r="C45" s="58"/>
@@ -2781,7 +2782,7 @@
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
     </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="41"/>
       <c r="B46" s="54"/>
       <c r="C46" s="59"/>
@@ -2796,7 +2797,7 @@
       <c r="I46" s="47"/>
       <c r="J46" s="47"/>
     </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="45"/>
       <c r="B47" s="48"/>
       <c r="C47" s="60"/>
@@ -2811,7 +2812,7 @@
       <c r="I47" s="49"/>
       <c r="J47" s="49"/>
     </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="44"/>
       <c r="B48" s="50"/>
       <c r="C48" s="61"/>
@@ -2826,7 +2827,7 @@
       <c r="I48" s="52"/>
       <c r="J48" s="52"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="41"/>
       <c r="B49" s="43"/>
       <c r="C49" s="56"/>
@@ -2842,7 +2843,7 @@
       <c r="J49" s="42"/>
       <c r="M49" s="40"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="45"/>
       <c r="B50" s="53"/>
       <c r="C50" s="58"/>
@@ -2857,7 +2858,7 @@
       <c r="I50" s="46"/>
       <c r="J50" s="46"/>
     </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="41"/>
       <c r="B51" s="54"/>
       <c r="C51" s="59"/>
@@ -2872,7 +2873,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="47"/>
     </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="45"/>
       <c r="B52" s="48"/>
       <c r="C52" s="60"/>
@@ -2887,7 +2888,7 @@
       <c r="I52" s="49"/>
       <c r="J52" s="49"/>
     </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="44"/>
       <c r="B53" s="50"/>
       <c r="C53" s="61"/>
@@ -2902,7 +2903,7 @@
       <c r="I53" s="52"/>
       <c r="J53" s="52"/>
     </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="41"/>
       <c r="B54" s="43"/>
       <c r="C54" s="56"/>
@@ -2918,7 +2919,7 @@
       <c r="J54" s="42"/>
       <c r="M54" s="40"/>
     </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="41"/>
       <c r="B55" s="43"/>
       <c r="C55" s="56"/>
@@ -2934,7 +2935,7 @@
       <c r="J55" s="42"/>
       <c r="M55" s="40"/>
     </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A56" s="41"/>
       <c r="B56" s="43"/>
       <c r="C56" s="56"/>
@@ -2950,7 +2951,7 @@
       <c r="J56" s="42"/>
       <c r="M56" s="40"/>
     </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="41"/>
       <c r="B57" s="43"/>
       <c r="C57" s="56"/>
@@ -2966,7 +2967,7 @@
       <c r="J57" s="42"/>
       <c r="M57" s="40"/>
     </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="44"/>
       <c r="B58" s="43"/>
       <c r="C58" s="56"/>
@@ -2982,7 +2983,7 @@
       <c r="J58" s="42"/>
       <c r="M58" s="40"/>
     </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="41"/>
       <c r="B59" s="43"/>
       <c r="C59" s="56"/>
@@ -2998,7 +2999,7 @@
       <c r="J59" s="42"/>
       <c r="M59" s="40"/>
     </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="45"/>
       <c r="B60" s="53"/>
       <c r="C60" s="58"/>
@@ -3013,7 +3014,7 @@
       <c r="I60" s="46"/>
       <c r="J60" s="46"/>
     </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A61" s="41"/>
       <c r="B61" s="54"/>
       <c r="C61" s="59"/>
@@ -3028,7 +3029,7 @@
       <c r="I61" s="47"/>
       <c r="J61" s="47"/>
     </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A62" s="45"/>
       <c r="B62" s="48"/>
       <c r="C62" s="60"/>
@@ -3043,7 +3044,7 @@
       <c r="I62" s="49"/>
       <c r="J62" s="49"/>
     </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A63" s="44"/>
       <c r="B63" s="50"/>
       <c r="C63" s="61"/>
@@ -3071,14 +3072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -3095,19 +3096,19 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="D3" s="3"/>
       <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3121,7 +3122,7 @@
         <v>41059</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1">
       <c r="C5" s="7"/>
       <c r="L5" s="3" t="s">
         <v>13</v>
@@ -3130,7 +3131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="32.25" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -3163,7 +3164,7 @@
       </c>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="13"/>
       <c r="B7" s="16"/>
       <c r="C7" s="11"/>
@@ -3176,7 +3177,7 @@
       <c r="J7" s="12"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="13"/>
       <c r="B8" s="16"/>
       <c r="C8" s="11"/>
@@ -3189,7 +3190,7 @@
       <c r="J8" s="12"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="13">
         <v>1</v>
       </c>
@@ -3204,7 +3205,7 @@
       <c r="J9" s="12"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="13"/>
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
@@ -3217,7 +3218,7 @@
       <c r="J10" s="66"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="67"/>
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
@@ -3233,7 +3234,7 @@
       </c>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="13"/>
       <c r="B12" s="16"/>
       <c r="C12" s="11"/>
@@ -3249,7 +3250,7 @@
       </c>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="68"/>
       <c r="B13" s="17"/>
       <c r="C13" s="69"/>
@@ -3261,7 +3262,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A14" s="13">
         <v>2</v>
       </c>
@@ -3275,7 +3276,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A15" s="68"/>
       <c r="B15" s="73"/>
       <c r="C15" s="74"/>
@@ -3287,7 +3288,7 @@
       <c r="I15" s="76"/>
       <c r="J15" s="76"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="67"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78"/>
@@ -3299,7 +3300,7 @@
       <c r="I16" s="80"/>
       <c r="J16" s="80"/>
     </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="11"/>
@@ -3312,7 +3313,7 @@
       <c r="J17" s="12"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="16"/>
       <c r="C18" s="11"/>
@@ -3325,7 +3326,7 @@
       <c r="J18" s="12"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A19" s="13">
         <v>3</v>
       </c>
@@ -3340,7 +3341,7 @@
       <c r="J19" s="12"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="63"/>
       <c r="C20" s="64"/>
@@ -3353,7 +3354,7 @@
       <c r="J20" s="66"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A21" s="67"/>
       <c r="B21" s="63"/>
       <c r="C21" s="64"/>
@@ -3366,7 +3367,7 @@
       <c r="J21" s="66"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="13"/>
       <c r="B22" s="16"/>
       <c r="C22" s="11"/>
@@ -3379,7 +3380,7 @@
       <c r="J22" s="12"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="68"/>
       <c r="B23" s="17"/>
       <c r="C23" s="69"/>
@@ -3391,7 +3392,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="13">
         <v>4</v>
       </c>
@@ -3405,7 +3406,7 @@
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A25" s="68"/>
       <c r="B25" s="73"/>
       <c r="C25" s="74"/>
@@ -3417,7 +3418,7 @@
       <c r="I25" s="76"/>
       <c r="J25" s="76"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="67"/>
       <c r="B26" s="77"/>
       <c r="C26" s="78"/>
@@ -3429,7 +3430,7 @@
       <c r="I26" s="80"/>
       <c r="J26" s="80"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="16"/>
       <c r="C27" s="11"/>
@@ -3442,7 +3443,7 @@
       <c r="J27" s="12"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="13"/>
       <c r="B28" s="16"/>
       <c r="C28" s="11"/>
@@ -3455,7 +3456,7 @@
       <c r="J28" s="12"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="13">
         <v>5</v>
       </c>
@@ -3470,7 +3471,7 @@
       <c r="J29" s="12"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="63"/>
       <c r="C30" s="64"/>
@@ -3483,7 +3484,7 @@
       <c r="J30" s="66"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="67"/>
       <c r="B31" s="63"/>
       <c r="C31" s="64"/>
@@ -3496,7 +3497,7 @@
       <c r="J31" s="66"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="13"/>
       <c r="B32" s="16"/>
       <c r="C32" s="11"/>
@@ -3509,7 +3510,7 @@
       <c r="J32" s="12"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="68"/>
       <c r="B33" s="17"/>
       <c r="C33" s="69"/>
@@ -3521,7 +3522,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="13">
         <v>6</v>
       </c>
@@ -3535,7 +3536,7 @@
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A35" s="68"/>
       <c r="B35" s="73"/>
       <c r="C35" s="74"/>
@@ -3547,7 +3548,7 @@
       <c r="I35" s="76"/>
       <c r="J35" s="76"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="67"/>
       <c r="B36" s="77"/>
       <c r="C36" s="78"/>
@@ -3559,7 +3560,7 @@
       <c r="I36" s="80"/>
       <c r="J36" s="80"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="16"/>
       <c r="C37" s="11"/>
@@ -3572,7 +3573,7 @@
       <c r="J37" s="12"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="13"/>
       <c r="B38" s="16"/>
       <c r="C38" s="11"/>
@@ -3585,7 +3586,7 @@
       <c r="J38" s="12"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="13">
         <v>7</v>
       </c>
@@ -3600,7 +3601,7 @@
       <c r="J39" s="12"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="13"/>
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
@@ -3613,7 +3614,7 @@
       <c r="J40" s="66"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="67"/>
       <c r="B41" s="63"/>
       <c r="C41" s="64"/>
@@ -3626,7 +3627,7 @@
       <c r="J41" s="66"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="13"/>
       <c r="B42" s="16"/>
       <c r="C42" s="11"/>
@@ -3639,7 +3640,7 @@
       <c r="J42" s="12"/>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A43" s="68"/>
       <c r="B43" s="17"/>
       <c r="C43" s="69"/>
@@ -3651,7 +3652,7 @@
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="13">
         <v>8</v>
       </c>
@@ -3665,7 +3666,7 @@
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="68"/>
       <c r="B45" s="73"/>
       <c r="C45" s="74"/>
@@ -3677,7 +3678,7 @@
       <c r="I45" s="76"/>
       <c r="J45" s="76"/>
     </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="67"/>
       <c r="B46" s="77"/>
       <c r="C46" s="78"/>
@@ -3689,7 +3690,7 @@
       <c r="I46" s="80"/>
       <c r="J46" s="80"/>
     </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="13"/>
       <c r="B47" s="16"/>
       <c r="C47" s="11"/>
@@ -3702,7 +3703,7 @@
       <c r="J47" s="12"/>
       <c r="M47" s="10"/>
     </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="68"/>
       <c r="B48" s="17"/>
       <c r="C48" s="69"/>
@@ -3714,7 +3715,7 @@
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="13">
         <v>9</v>
       </c>
@@ -3728,7 +3729,7 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="68"/>
       <c r="B50" s="73"/>
       <c r="C50" s="74"/>
@@ -3740,7 +3741,7 @@
       <c r="I50" s="76"/>
       <c r="J50" s="76"/>
     </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="67"/>
       <c r="B51" s="77"/>
       <c r="C51" s="78"/>
@@ -3752,7 +3753,7 @@
       <c r="I51" s="80"/>
       <c r="J51" s="80"/>
     </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="13"/>
       <c r="B52" s="16"/>
       <c r="C52" s="11"/>
@@ -3765,7 +3766,7 @@
       <c r="J52" s="12"/>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="13"/>
       <c r="B53" s="16"/>
       <c r="C53" s="11"/>
@@ -3778,7 +3779,7 @@
       <c r="J53" s="12"/>
       <c r="M53" s="10"/>
     </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="13">
         <v>10</v>
       </c>
@@ -3793,7 +3794,7 @@
       <c r="J54" s="12"/>
       <c r="M54" s="10"/>
     </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="13"/>
       <c r="B55" s="63"/>
       <c r="C55" s="64"/>
@@ -3806,7 +3807,7 @@
       <c r="J55" s="66"/>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A56" s="67"/>
       <c r="B56" s="63"/>
       <c r="C56" s="64"/>
@@ -3819,7 +3820,7 @@
       <c r="J56" s="66"/>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="13"/>
       <c r="B57" s="16"/>
       <c r="C57" s="11"/>
@@ -3832,7 +3833,7 @@
       <c r="J57" s="12"/>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="68"/>
       <c r="B58" s="17"/>
       <c r="C58" s="69"/>
@@ -3844,7 +3845,7 @@
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
     </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="13">
         <v>11</v>
       </c>
@@ -3858,7 +3859,7 @@
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="68"/>
       <c r="B60" s="73"/>
       <c r="C60" s="74"/>
@@ -3870,7 +3871,7 @@
       <c r="I60" s="76"/>
       <c r="J60" s="76"/>
     </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A61" s="67"/>
       <c r="B61" s="77"/>
       <c r="C61" s="78"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-HuyenLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-HuyenLe.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
     <sheet name="SAD" sheetId="2" r:id="rId2"/>
-    <sheet name="Other" sheetId="3" r:id="rId3"/>
+    <sheet name="SAD-Rework" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEP!$A$6:$J$6</definedName>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3075,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
